--- a/biology/Zoologie/Bovini/Bovini.xlsx
+++ b/biology/Zoologie/Bovini/Bovini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bovins (Bovini) sont une tribu de mammifères artiodactyles de la famille des Bovidés regroupant les Bœufs et les genres apparentés.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bison
 Bos
@@ -547,11 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Place au sein de la famille
-Phylogénie des Bovidés par tribus, d'après Calamari (2021)[1] :
-Phylogénie de la tribu
-Les études de phylogénie ont établi l'arborescence suivante[2],[3] :
-Noter que la pertinence du genre Bison est remise en cause.
+          <t>Place au sein de la famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Bovidés par tribus, d'après Calamari (2021) :
 </t>
         </is>
       </c>
@@ -577,53 +593,166 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie de la tribu</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les études de phylogénie ont établi l'arborescence suivante, :
+Noter que la pertinence du genre Bison est remise en cause.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bovini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bovini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Espèces domestiquées
-le bœuf domestique (Bos taurus) ; cf. vache, taureau, bœuf
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces domestiquées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>le bœuf domestique (Bos taurus) ; cf. vache, taureau, bœuf
 le zébu (Bos taurus indicus, maintenant considéré comme une sous-espèce du premier)
 le buffle d'Asie (Bubalus bubalus)
 le yak (Bos grunniens)
 le gayal (Bos frontalis)
-le banteng (Bos javanicus)
-Autres espèces
-le kouprey (Bos sauveli)
+le banteng (Bos javanicus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bovini</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bovini</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>le kouprey (Bos sauveli)
 le bison d'Amérique du Nord (Bison bison)
 le bison d'Europe (Bison bonasus)
-le buffle d'Afrique (Syncerus caffer)
-Espèce éteinte
-l'auroch (Bos primigenius†)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+le buffle d'Afrique (Syncerus caffer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Bovini</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bovini</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèce éteinte</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>l'auroch (Bos primigenius†)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bovini</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bovini</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Importance économique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bovins sont présents sur tous les continents. Leur population mondiale s'élève à 1,5 milliard de têtes (dont 1,4 milliard de taurins et 150 millions de zébus). Ils sont élevés pour le travail qu'ils fournissent, aspect encore important dans les pays sous-développés, pour le lait, qui est une source de matière grasse importante (le beurre) et pour la viande (sauf en Inde). On utilise aussi leur peau (cuir), leur corne, ainsi que la bouse qui constitue un fertilisant et est utilisée comme combustible dans certains pays.
 </t>
